--- a/Updates and Tracking/Proposal Gantt.xlsx
+++ b/Updates and Tracking/Proposal Gantt.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19355793-1E62-4953-91DD-9EC2DD14CAD2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C1CE3-8853-4AC4-AFB6-76F787AFCD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,9 +140,6 @@
     <t>Player Disks</t>
   </si>
   <si>
-    <t>Animations</t>
-  </si>
-  <si>
     <t>Improve Aesthetics</t>
   </si>
   <si>
@@ -174,6 +171,9 @@
   </si>
   <si>
     <t>Program Setup</t>
+  </si>
+  <si>
+    <t>Animations - tenative</t>
   </si>
 </sst>
 </file>
@@ -726,25 +726,25 @@
     <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="12" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="13">
     <cellStyle name="Comma" xfId="4" builtinId="3" customBuiltin="1"/>
@@ -1344,7 +1344,7 @@
   <dimension ref="A1:AP28"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="AS20" sqref="AS20"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1373,7 @@
   <sheetData>
     <row r="1" spans="1:42" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1384,87 +1384,87 @@
     </row>
     <row r="2" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="45"/>
     </row>
     <row r="3" spans="1:42" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="49"/>
-      <c r="B3" s="66" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="67"/>
-      <c r="D3" s="62">
+      <c r="C3" s="63"/>
+      <c r="D3" s="68">
         <v>44259</v>
       </c>
-      <c r="E3" s="62"/>
+      <c r="E3" s="68"/>
     </row>
     <row r="4" spans="1:42" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="67"/>
+      <c r="C4" s="63"/>
       <c r="D4" s="6">
         <v>3</v>
       </c>
-      <c r="H4" s="63">
+      <c r="H4" s="65">
         <f>H5</f>
         <v>44270</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="64"/>
-      <c r="K4" s="64"/>
-      <c r="L4" s="64"/>
-      <c r="M4" s="64"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="63">
+      <c r="I4" s="66"/>
+      <c r="J4" s="66"/>
+      <c r="K4" s="66"/>
+      <c r="L4" s="66"/>
+      <c r="M4" s="66"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="65">
         <f>O5</f>
         <v>44277</v>
       </c>
-      <c r="P4" s="64"/>
-      <c r="Q4" s="64"/>
-      <c r="R4" s="64"/>
-      <c r="S4" s="64"/>
-      <c r="T4" s="64"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="63">
+      <c r="P4" s="66"/>
+      <c r="Q4" s="66"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="65">
         <f>V5</f>
         <v>44284</v>
       </c>
-      <c r="W4" s="64"/>
-      <c r="X4" s="64"/>
-      <c r="Y4" s="64"/>
-      <c r="Z4" s="64"/>
-      <c r="AA4" s="64"/>
-      <c r="AB4" s="65"/>
-      <c r="AC4" s="63">
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="65">
         <f>AC5</f>
         <v>44291</v>
       </c>
-      <c r="AD4" s="64"/>
-      <c r="AE4" s="64"/>
-      <c r="AF4" s="64"/>
-      <c r="AG4" s="64"/>
-      <c r="AH4" s="64"/>
-      <c r="AI4" s="65"/>
-      <c r="AJ4" s="63">
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="65">
         <f>AJ5</f>
         <v>44298</v>
       </c>
-      <c r="AK4" s="64"/>
-      <c r="AL4" s="64"/>
-      <c r="AM4" s="64"/>
-      <c r="AN4" s="64"/>
-      <c r="AO4" s="64"/>
-      <c r="AP4" s="65"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="66"/>
+      <c r="AO4" s="66"/>
+      <c r="AP4" s="67"/>
     </row>
     <row r="5" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="68"/>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="A5" s="64"/>
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
       <c r="H5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
         <v>44270</v>
@@ -1861,10 +1861,10 @@
     </row>
     <row r="9" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1923,7 +1923,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -1982,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
@@ -2041,7 +2041,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -2149,10 +2149,10 @@
         <v>29</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="51">
         <v>44287</v>
@@ -2207,10 +2207,10 @@
         <v>30</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C15" s="25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="51">
         <f>D14+2</f>
@@ -2263,10 +2263,10 @@
     </row>
     <row r="16" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="25"/>
       <c r="D16" s="51">
@@ -2320,12 +2320,14 @@
     </row>
     <row r="17" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="C17" s="25">
+        <v>0.6</v>
+      </c>
       <c r="D17" s="51">
         <f>D16</f>
         <v>44294</v>
@@ -2377,10 +2379,10 @@
     </row>
     <row r="18" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B18" s="56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C18" s="25"/>
       <c r="D18" s="51">
@@ -2482,10 +2484,10 @@
     </row>
     <row r="20" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="30"/>
       <c r="D20" s="52">
@@ -2538,12 +2540,14 @@
     </row>
     <row r="21" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="30"/>
+        <v>37</v>
+      </c>
+      <c r="C21" s="30">
+        <v>0.2</v>
+      </c>
       <c r="D21" s="52">
         <f>E20</f>
         <v>44294</v>
@@ -2595,10 +2599,10 @@
     </row>
     <row r="22" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="61" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="52">

--- a/Updates and Tracking/Proposal Gantt.xlsx
+++ b/Updates and Tracking/Proposal Gantt.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E76C1CE3-8853-4AC4-AFB6-76F787AFCD58}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30F945A7-A192-4330-80C0-A63BC738DA5C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>Project Start:</t>
   </si>
@@ -149,9 +149,6 @@
     <t>Time Complexity</t>
   </si>
   <si>
-    <t>User Chosen Colors</t>
-  </si>
-  <si>
     <t>Connect Four</t>
   </si>
   <si>
@@ -167,13 +164,10 @@
     <t>Sunil</t>
   </si>
   <si>
-    <t>User Interactivity - tenative</t>
-  </si>
-  <si>
     <t>Program Setup</t>
   </si>
   <si>
-    <t>Animations - tenative</t>
+    <t>User Interactivity</t>
   </si>
 </sst>
 </file>
@@ -1341,10 +1335,10 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AP28"/>
+  <dimension ref="A1:AP26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="68" zoomScaleNormal="68" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1373,7 +1367,7 @@
   <sheetData>
     <row r="1" spans="1:42" ht="29.4" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="47" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1384,7 +1378,7 @@
     </row>
     <row r="2" spans="1:42" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="48" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="45"/>
     </row>
@@ -1405,11 +1399,11 @@
       </c>
       <c r="C4" s="63"/>
       <c r="D4" s="6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H4" s="65">
         <f>H5</f>
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="I4" s="66"/>
       <c r="J4" s="66"/>
@@ -1419,7 +1413,7 @@
       <c r="N4" s="67"/>
       <c r="O4" s="65">
         <f>O5</f>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="P4" s="66"/>
       <c r="Q4" s="66"/>
@@ -1429,7 +1423,7 @@
       <c r="U4" s="67"/>
       <c r="V4" s="65">
         <f>V5</f>
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="W4" s="66"/>
       <c r="X4" s="66"/>
@@ -1439,7 +1433,7 @@
       <c r="AB4" s="67"/>
       <c r="AC4" s="65">
         <f>AC5</f>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="AD4" s="66"/>
       <c r="AE4" s="66"/>
@@ -1449,7 +1443,7 @@
       <c r="AI4" s="67"/>
       <c r="AJ4" s="65">
         <f>AJ5</f>
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="AK4" s="66"/>
       <c r="AL4" s="66"/>
@@ -1467,143 +1461,143 @@
       <c r="F5" s="64"/>
       <c r="H5" s="10">
         <f>Project_Start-WEEKDAY(Project_Start,1)+2+7*(Display_Week-1)</f>
-        <v>44270</v>
+        <v>44277</v>
       </c>
       <c r="I5" s="9">
         <f>H5+1</f>
-        <v>44271</v>
+        <v>44278</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" ref="J5:AP5" si="0">I5+1</f>
-        <v>44272</v>
+        <v>44279</v>
       </c>
       <c r="K5" s="9">
         <f t="shared" si="0"/>
-        <v>44273</v>
+        <v>44280</v>
       </c>
       <c r="L5" s="9">
         <f t="shared" si="0"/>
-        <v>44274</v>
+        <v>44281</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="0"/>
-        <v>44275</v>
+        <v>44282</v>
       </c>
       <c r="N5" s="11">
         <f t="shared" si="0"/>
-        <v>44276</v>
+        <v>44283</v>
       </c>
       <c r="O5" s="10">
         <f>N5+1</f>
-        <v>44277</v>
+        <v>44284</v>
       </c>
       <c r="P5" s="9">
         <f>O5+1</f>
-        <v>44278</v>
+        <v>44285</v>
       </c>
       <c r="Q5" s="9">
         <f t="shared" si="0"/>
-        <v>44279</v>
+        <v>44286</v>
       </c>
       <c r="R5" s="9">
         <f t="shared" si="0"/>
-        <v>44280</v>
+        <v>44287</v>
       </c>
       <c r="S5" s="9">
         <f t="shared" si="0"/>
-        <v>44281</v>
+        <v>44288</v>
       </c>
       <c r="T5" s="9">
         <f t="shared" si="0"/>
-        <v>44282</v>
+        <v>44289</v>
       </c>
       <c r="U5" s="11">
         <f t="shared" si="0"/>
-        <v>44283</v>
+        <v>44290</v>
       </c>
       <c r="V5" s="10">
         <f>U5+1</f>
-        <v>44284</v>
+        <v>44291</v>
       </c>
       <c r="W5" s="9">
         <f>V5+1</f>
-        <v>44285</v>
+        <v>44292</v>
       </c>
       <c r="X5" s="9">
         <f t="shared" si="0"/>
-        <v>44286</v>
+        <v>44293</v>
       </c>
       <c r="Y5" s="9">
         <f t="shared" si="0"/>
-        <v>44287</v>
+        <v>44294</v>
       </c>
       <c r="Z5" s="9">
         <f t="shared" si="0"/>
-        <v>44288</v>
+        <v>44295</v>
       </c>
       <c r="AA5" s="9">
         <f t="shared" si="0"/>
-        <v>44289</v>
+        <v>44296</v>
       </c>
       <c r="AB5" s="11">
         <f t="shared" si="0"/>
-        <v>44290</v>
+        <v>44297</v>
       </c>
       <c r="AC5" s="10">
         <f>AB5+1</f>
-        <v>44291</v>
+        <v>44298</v>
       </c>
       <c r="AD5" s="9">
         <f>AC5+1</f>
-        <v>44292</v>
+        <v>44299</v>
       </c>
       <c r="AE5" s="9">
         <f t="shared" si="0"/>
-        <v>44293</v>
+        <v>44300</v>
       </c>
       <c r="AF5" s="9">
         <f t="shared" si="0"/>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="AG5" s="9">
         <f t="shared" si="0"/>
-        <v>44295</v>
+        <v>44302</v>
       </c>
       <c r="AH5" s="9">
         <f t="shared" si="0"/>
-        <v>44296</v>
+        <v>44303</v>
       </c>
       <c r="AI5" s="11">
         <f t="shared" si="0"/>
-        <v>44297</v>
+        <v>44304</v>
       </c>
       <c r="AJ5" s="10">
         <f>AI5+1</f>
-        <v>44298</v>
+        <v>44305</v>
       </c>
       <c r="AK5" s="9">
         <f>AJ5+1</f>
-        <v>44299</v>
+        <v>44306</v>
       </c>
       <c r="AL5" s="9">
         <f t="shared" si="0"/>
-        <v>44300</v>
+        <v>44307</v>
       </c>
       <c r="AM5" s="9">
         <f t="shared" si="0"/>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="AN5" s="9">
         <f t="shared" si="0"/>
-        <v>44302</v>
+        <v>44309</v>
       </c>
       <c r="AO5" s="9">
         <f t="shared" si="0"/>
-        <v>44303</v>
+        <v>44310</v>
       </c>
       <c r="AP5" s="11">
         <f t="shared" si="0"/>
-        <v>44304</v>
+        <v>44311</v>
       </c>
     </row>
     <row r="6" spans="1:42" ht="31.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1820,7 +1814,7 @@
       <c r="E8" s="19"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15" t="str">
-        <f t="shared" ref="G8:G22" si="2">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="G8:G20" si="2">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="H8" s="31"/>
@@ -1861,10 +1855,10 @@
     </row>
     <row r="9" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="59" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="20">
         <v>1</v>
@@ -1923,7 +1917,7 @@
         <v>26</v>
       </c>
       <c r="B10" s="54" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -1982,7 +1976,7 @@
         <v>27</v>
       </c>
       <c r="B11" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="20">
         <v>1</v>
@@ -2041,7 +2035,7 @@
         <v>28</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -2149,7 +2143,7 @@
         <v>29</v>
       </c>
       <c r="B14" s="56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="25">
         <v>1</v>
@@ -2207,7 +2201,7 @@
         <v>30</v>
       </c>
       <c r="B15" s="56" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C15" s="25">
         <v>1</v>
@@ -2263,19 +2257,21 @@
     </row>
     <row r="16" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="60" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="B16" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="25"/>
+        <v>36</v>
+      </c>
+      <c r="C16" s="25">
+        <v>0.9</v>
+      </c>
       <c r="D16" s="51">
-        <f>E15</f>
-        <v>44294</v>
+        <f>E15+2</f>
+        <v>44296</v>
       </c>
       <c r="E16" s="51">
         <f>D16+7</f>
-        <v>44301</v>
+        <v>44303</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15">
@@ -2298,7 +2294,7 @@
       <c r="U16" s="31"/>
       <c r="V16" s="31"/>
       <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="31"/>
       <c r="Z16" s="31"/>
       <c r="AA16" s="31"/>
@@ -2320,21 +2316,20 @@
     </row>
     <row r="17" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="60" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="B17" s="56" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C17" s="25">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="D17" s="51">
-        <f>D16</f>
-        <v>44294</v>
+        <v>44301</v>
       </c>
       <c r="E17" s="51">
         <f>D17+7</f>
-        <v>44301</v>
+        <v>44308</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="15">
@@ -2357,7 +2352,7 @@
       <c r="U17" s="31"/>
       <c r="V17" s="31"/>
       <c r="W17" s="31"/>
-      <c r="X17" s="32"/>
+      <c r="X17" s="31"/>
       <c r="Y17" s="31"/>
       <c r="Z17" s="31"/>
       <c r="AA17" s="31"/>
@@ -2378,24 +2373,17 @@
       <c r="AP17" s="31"/>
     </row>
     <row r="18" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="51">
-        <v>44301</v>
-      </c>
-      <c r="E18" s="51">
-        <f>D18+7</f>
-        <v>44308</v>
-      </c>
+      <c r="A18" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="57"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="15">
+      <c r="G18" s="15" t="str">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v/>
       </c>
       <c r="H18" s="31"/>
       <c r="I18" s="31"/>
@@ -2434,17 +2422,26 @@
       <c r="AP18" s="31"/>
     </row>
     <row r="19" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="57"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="29"/>
+      <c r="A19" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="D19" s="52">
+        <v>44287</v>
+      </c>
+      <c r="E19" s="52">
+        <f>D19+7</f>
+        <v>44294</v>
+      </c>
       <c r="F19" s="15"/>
-      <c r="G19" s="15" t="str">
+      <c r="G19" s="15">
         <f t="shared" si="2"/>
-        <v/>
+        <v>8</v>
       </c>
       <c r="H19" s="31"/>
       <c r="I19" s="31"/>
@@ -2484,23 +2481,26 @@
     </row>
     <row r="20" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="58" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="30"/>
+        <v>36</v>
+      </c>
+      <c r="C20" s="30">
+        <v>0.5</v>
+      </c>
       <c r="D20" s="52">
-        <v>44287</v>
+        <f>E19</f>
+        <v>44294</v>
       </c>
       <c r="E20" s="52">
-        <f>D20+7</f>
-        <v>44294</v>
+        <f>D20+4</f>
+        <v>44298</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="15">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="H20" s="31"/>
       <c r="I20" s="31"/>
@@ -2538,125 +2538,97 @@
       <c r="AO20" s="31"/>
       <c r="AP20" s="31"/>
     </row>
-    <row r="21" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="61" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="30">
-        <v>0.2</v>
-      </c>
-      <c r="D21" s="52">
-        <f>E20</f>
-        <v>44294</v>
-      </c>
-      <c r="E21" s="52">
-        <f>D21+4</f>
-        <v>44298</v>
-      </c>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H21" s="31"/>
-      <c r="I21" s="31"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="31"/>
-      <c r="L21" s="31"/>
-      <c r="M21" s="31"/>
-      <c r="N21" s="31"/>
-      <c r="O21" s="31"/>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
-      <c r="R21" s="31"/>
-      <c r="S21" s="31"/>
-      <c r="T21" s="31"/>
-      <c r="U21" s="31"/>
-      <c r="V21" s="31"/>
-      <c r="W21" s="31"/>
-      <c r="X21" s="31"/>
-      <c r="Y21" s="31"/>
-      <c r="Z21" s="31"/>
-      <c r="AA21" s="31"/>
-      <c r="AB21" s="31"/>
-      <c r="AC21" s="31"/>
-      <c r="AD21" s="31"/>
-      <c r="AE21" s="31"/>
-      <c r="AF21" s="31"/>
-      <c r="AG21" s="31"/>
-      <c r="AH21" s="31"/>
-      <c r="AI21" s="31"/>
-      <c r="AJ21" s="31"/>
-      <c r="AK21" s="31"/>
-      <c r="AL21" s="31"/>
-      <c r="AM21" s="31"/>
-      <c r="AN21" s="31"/>
-      <c r="AO21" s="31"/>
-      <c r="AP21" s="31"/>
-    </row>
-    <row r="22" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" s="58" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="52">
-        <f>D18</f>
-        <v>44301</v>
-      </c>
-      <c r="E22" s="52">
-        <f>D22+5</f>
-        <v>44306</v>
-      </c>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H22" s="31"/>
-      <c r="I22" s="31"/>
-      <c r="J22" s="31"/>
-      <c r="K22" s="31"/>
-      <c r="L22" s="31"/>
-      <c r="M22" s="31"/>
-      <c r="N22" s="31"/>
-      <c r="O22" s="31"/>
-      <c r="P22" s="31"/>
-      <c r="Q22" s="31"/>
-      <c r="R22" s="31"/>
-      <c r="S22" s="31"/>
-      <c r="T22" s="31"/>
-      <c r="U22" s="31"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="31"/>
-      <c r="X22" s="31"/>
-      <c r="Y22" s="31"/>
-      <c r="Z22" s="31"/>
-      <c r="AA22" s="31"/>
-      <c r="AB22" s="31"/>
-      <c r="AC22" s="31"/>
-      <c r="AD22" s="31"/>
-      <c r="AE22" s="31"/>
-      <c r="AF22" s="31"/>
-      <c r="AG22" s="31"/>
-      <c r="AH22" s="31"/>
-      <c r="AI22" s="31"/>
-      <c r="AJ22" s="31"/>
-      <c r="AK22" s="31"/>
-      <c r="AL22" s="31"/>
-      <c r="AM22" s="31"/>
-      <c r="AN22" s="31"/>
-      <c r="AO22" s="31"/>
-      <c r="AP22" s="31"/>
+    <row r="21" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="C21"/>
+      <c r="D21" s="5"/>
+      <c r="E21"/>
+      <c r="F21"/>
+      <c r="G21"/>
+      <c r="H21"/>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+      <c r="U21"/>
+      <c r="V21"/>
+      <c r="W21"/>
+      <c r="X21"/>
+      <c r="Y21"/>
+      <c r="Z21"/>
+      <c r="AA21"/>
+      <c r="AB21"/>
+      <c r="AC21"/>
+      <c r="AD21"/>
+      <c r="AE21"/>
+      <c r="AF21"/>
+      <c r="AG21"/>
+      <c r="AH21"/>
+      <c r="AI21"/>
+      <c r="AJ21"/>
+      <c r="AK21"/>
+      <c r="AL21"/>
+      <c r="AM21"/>
+      <c r="AN21"/>
+      <c r="AO21"/>
+      <c r="AP21"/>
+    </row>
+    <row r="22" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22"/>
+      <c r="B22" s="13"/>
+      <c r="C22"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="44"/>
+      <c r="F22"/>
+      <c r="G22"/>
+      <c r="H22"/>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+      <c r="U22"/>
+      <c r="V22"/>
+      <c r="W22"/>
+      <c r="X22"/>
+      <c r="Y22"/>
+      <c r="Z22"/>
+      <c r="AA22"/>
+      <c r="AB22"/>
+      <c r="AC22"/>
+      <c r="AD22"/>
+      <c r="AE22"/>
+      <c r="AF22"/>
+      <c r="AG22"/>
+      <c r="AH22"/>
+      <c r="AI22"/>
+      <c r="AJ22"/>
+      <c r="AK22"/>
+      <c r="AL22"/>
+      <c r="AM22"/>
+      <c r="AN22"/>
+      <c r="AO22"/>
+      <c r="AP22"/>
     </row>
     <row r="23" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23"/>
-      <c r="B23"/>
+      <c r="B23" s="14"/>
       <c r="C23"/>
       <c r="D23" s="5"/>
       <c r="E23"/>
@@ -2700,10 +2672,10 @@
     </row>
     <row r="24" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24"/>
-      <c r="B24" s="13"/>
+      <c r="B24"/>
       <c r="C24"/>
       <c r="D24" s="5"/>
-      <c r="E24" s="44"/>
+      <c r="E24"/>
       <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
@@ -2744,7 +2716,7 @@
     </row>
     <row r="25" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25"/>
-      <c r="B25" s="14"/>
+      <c r="B25"/>
       <c r="C25"/>
       <c r="D25" s="5"/>
       <c r="E25"/>
@@ -2830,94 +2802,6 @@
       <c r="AO26"/>
       <c r="AP26"/>
     </row>
-    <row r="27" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="C27"/>
-      <c r="D27" s="5"/>
-      <c r="E27"/>
-      <c r="F27"/>
-      <c r="G27"/>
-      <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27"/>
-      <c r="K27"/>
-      <c r="L27"/>
-      <c r="M27"/>
-      <c r="N27"/>
-      <c r="O27"/>
-      <c r="P27"/>
-      <c r="Q27"/>
-      <c r="R27"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
-      <c r="Y27"/>
-      <c r="Z27"/>
-      <c r="AA27"/>
-      <c r="AB27"/>
-      <c r="AC27"/>
-      <c r="AD27"/>
-      <c r="AE27"/>
-      <c r="AF27"/>
-      <c r="AG27"/>
-      <c r="AH27"/>
-      <c r="AI27"/>
-      <c r="AJ27"/>
-      <c r="AK27"/>
-      <c r="AL27"/>
-      <c r="AM27"/>
-      <c r="AN27"/>
-      <c r="AO27"/>
-      <c r="AP27"/>
-    </row>
-    <row r="28" spans="1:42" s="3" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="C28"/>
-      <c r="D28" s="5"/>
-      <c r="E28"/>
-      <c r="F28"/>
-      <c r="G28"/>
-      <c r="H28"/>
-      <c r="I28"/>
-      <c r="J28"/>
-      <c r="K28"/>
-      <c r="L28"/>
-      <c r="M28"/>
-      <c r="N28"/>
-      <c r="O28"/>
-      <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28"/>
-      <c r="S28"/>
-      <c r="T28"/>
-      <c r="U28"/>
-      <c r="V28"/>
-      <c r="W28"/>
-      <c r="X28"/>
-      <c r="Y28"/>
-      <c r="Z28"/>
-      <c r="AA28"/>
-      <c r="AB28"/>
-      <c r="AC28"/>
-      <c r="AD28"/>
-      <c r="AE28"/>
-      <c r="AF28"/>
-      <c r="AG28"/>
-      <c r="AH28"/>
-      <c r="AI28"/>
-      <c r="AJ28"/>
-      <c r="AK28"/>
-      <c r="AL28"/>
-      <c r="AM28"/>
-      <c r="AN28"/>
-      <c r="AO28"/>
-      <c r="AP28"/>
-    </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="B3:C3"/>
@@ -2930,7 +2814,7 @@
     <mergeCell ref="V4:AB4"/>
     <mergeCell ref="AC4:AI4"/>
   </mergeCells>
-  <conditionalFormatting sqref="C7:C22">
+  <conditionalFormatting sqref="C7:C20">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -2944,12 +2828,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:AO22">
+  <conditionalFormatting sqref="H5:AO20">
     <cfRule type="expression" dxfId="5" priority="33">
       <formula>AND(TODAY()&gt;=H$5,TODAY()&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H7:AO22">
+  <conditionalFormatting sqref="H7:AO20">
     <cfRule type="expression" dxfId="4" priority="27">
       <formula>AND(task_start&lt;=H$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=H$5)</formula>
     </cfRule>
@@ -2957,12 +2841,12 @@
       <formula>AND(task_end&gt;=H$5,task_start&lt;I$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP5:AP22">
+  <conditionalFormatting sqref="AP5:AP20">
     <cfRule type="expression" dxfId="2" priority="36">
       <formula>AND(TODAY()&gt;=AP$5,TODAY()&lt;#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AP7:AP22">
+  <conditionalFormatting sqref="AP7:AP20">
     <cfRule type="expression" dxfId="1" priority="42">
       <formula>AND(task_start&lt;=AP$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=AP$5)</formula>
     </cfRule>
@@ -2982,7 +2866,7 @@
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="E21:E22" formula="1"/>
+    <ignoredError sqref="E20" formula="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
@@ -3000,7 +2884,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C7:C22</xm:sqref>
+          <xm:sqref>C7:C20</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
